--- a/data/trans_orig/P1804-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52AAEECB-5D94-42B4-B15C-E7DFE950FE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89E2D1F9-5364-402B-BD18-7DA46D6AA446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{983D0C9A-6597-4592-AA06-EC2A5748B4D6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{411067F0-EAFF-48A4-8CE8-85BB211188D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="147">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,229 +75,223 @@
     <t>8,69%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
     <t>9,73%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>90,27%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>94,97%</t>
   </si>
   <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>90,33%</t>
   </si>
   <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,211 +303,181 @@
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>10,06%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>8,85%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>89,94%</t>
   </si>
   <si>
     <t>92,55%</t>
   </si>
   <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
+    <t>91,15%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>4,04%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>7,96%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>5,05%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>95,96%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>92,04%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>94,95%</t>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>90,9%</t>
   </si>
   <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>88,49%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7992E89D-B477-41AF-93E6-D7152DAA46D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC8D9DF-1702-4D8E-8C88-DE37C03E612C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1225,7 +1189,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>262</v>
@@ -1234,13 +1198,13 @@
         <v>275417</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1255,13 +1219,13 @@
         <v>1966500</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1753</v>
@@ -1270,13 +1234,13 @@
         <v>1822768</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3598</v>
@@ -1285,13 +1249,13 @@
         <v>3789268</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1347,7 +1311,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1359,13 +1323,13 @@
         <v>38235</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -1374,13 +1338,13 @@
         <v>67780</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>95</v>
@@ -1389,13 +1353,13 @@
         <v>106015</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,13 +1374,13 @@
         <v>508651</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>466</v>
@@ -1425,13 +1389,13 @@
         <v>481360</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>932</v>
@@ -1440,13 +1404,13 @@
         <v>990011</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,13 +1478,13 @@
         <v>213690</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>315</v>
@@ -1529,13 +1493,13 @@
         <v>350012</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>522</v>
@@ -1544,13 +1508,13 @@
         <v>563702</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,13 +1529,13 @@
         <v>3163928</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3011</v>
@@ -1580,13 +1544,13 @@
         <v>3182088</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6019</v>
@@ -1595,13 +1559,13 @@
         <v>6346016</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,7 +1621,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1676,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF34162-9E69-4332-A73E-DC8EF40B0BC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E73FF9-A409-4903-9FAC-A7038C32A5A4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1693,7 +1657,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1800,13 +1764,13 @@
         <v>33083</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>126</v>
@@ -1815,13 +1779,13 @@
         <v>69513</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>170</v>
@@ -1830,13 +1794,13 @@
         <v>102596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,13 +1815,13 @@
         <v>508551</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>1300</v>
@@ -1866,13 +1830,13 @@
         <v>765815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="M5" s="7">
         <v>1947</v>
@@ -1881,13 +1845,13 @@
         <v>1274366</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1919,13 @@
         <v>105887</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H7" s="7">
         <v>198</v>
@@ -1970,13 +1934,13 @@
         <v>150124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>302</v>
@@ -1985,13 +1949,13 @@
         <v>256011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,13 +1970,13 @@
         <v>2056135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>2719</v>
@@ -2021,13 +1985,13 @@
         <v>2095650</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="M8" s="7">
         <v>4607</v>
@@ -2036,13 +2000,13 @@
         <v>4151785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,7 +2062,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2110,13 +2074,13 @@
         <v>61280</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -2125,13 +2089,13 @@
         <v>82144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -2140,13 +2104,13 @@
         <v>143425</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2125,13 @@
         <v>611759</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H11" s="7">
         <v>890</v>
@@ -2176,13 +2140,13 @@
         <v>631742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>1511</v>
@@ -2191,13 +2155,13 @@
         <v>1243501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,16 +2226,16 @@
         <v>208</v>
       </c>
       <c r="D13" s="7">
-        <v>200250</v>
+        <v>200249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7">
         <v>438</v>
@@ -2280,13 +2244,13 @@
         <v>301782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>646</v>
@@ -2295,13 +2259,13 @@
         <v>502032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2280,13 @@
         <v>3176445</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="H14" s="7">
         <v>4909</v>
@@ -2331,13 +2295,13 @@
         <v>3493207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>8065</v>
@@ -2346,13 +2310,13 @@
         <v>6669652</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,7 +2328,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2408,7 +2372,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1804-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89E2D1F9-5364-402B-BD18-7DA46D6AA446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3FC22F9-4E05-4480-96AC-09E68739AA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{411067F0-EAFF-48A4-8CE8-85BB211188D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53DFB3A9-24B8-4DC1-9909-9E1739020E78}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="147">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="143">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>8,69%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>91,31%</t>
   </si>
   <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>88,27%</t>
   </si>
   <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,243 +138,249 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>4,37%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>94,57%</t>
   </si>
   <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
     <t>94,19%</t>
   </si>
   <si>
@@ -393,9 +399,6 @@
     <t>11,65%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
     <t>9,47%</t>
   </si>
   <si>
@@ -405,9 +408,6 @@
     <t>10,34%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
     <t>12,18%</t>
   </si>
   <si>
@@ -420,9 +420,6 @@
     <t>93,19%</t>
   </si>
   <si>
-    <t>88,49%</t>
-  </si>
-  <si>
     <t>86,12%</t>
   </si>
   <si>
@@ -435,15 +432,9 @@
     <t>87,82%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
     <t>6,89%</t>
   </si>
   <si>
@@ -460,9 +451,6 @@
   </si>
   <si>
     <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
   </si>
   <si>
     <t>91,12%</t>
@@ -889,7 +877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC8D9DF-1702-4D8E-8C88-DE37C03E612C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A229659-820B-4859-8455-C2DF2688E9C4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1189,7 +1177,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>262</v>
@@ -1198,7 +1186,7 @@
         <v>275417</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>38</v>
@@ -1237,10 +1225,10 @@
         <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>3598</v>
@@ -1249,7 +1237,7 @@
         <v>3789268</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>46</v>
@@ -1640,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E73FF9-A409-4903-9FAC-A7038C32A5A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFC1EBE-C2F7-40C2-B4B1-87ED5C119A3A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1797,10 +1785,10 @@
         <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,10 +1836,10 @@
         <v>99</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,10 +1925,10 @@
         <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>302</v>
@@ -1949,13 +1937,13 @@
         <v>256011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1958,13 @@
         <v>2056135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>2719</v>
@@ -1985,13 +1973,13 @@
         <v>2095650</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>4607</v>
@@ -2000,13 +1988,13 @@
         <v>4151785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2062,13 @@
         <v>61280</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -2089,13 +2077,13 @@
         <v>82144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -2104,10 +2092,10 @@
         <v>143425</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>123</v>
@@ -2140,13 +2128,13 @@
         <v>631742</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>1511</v>
@@ -2155,13 +2143,13 @@
         <v>1243501</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2217,13 @@
         <v>200249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H13" s="7">
         <v>438</v>
@@ -2244,13 +2232,13 @@
         <v>301782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>646</v>
@@ -2259,13 +2247,13 @@
         <v>502032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2268,13 @@
         <v>3176445</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
         <v>4909</v>
@@ -2295,13 +2283,13 @@
         <v>3493207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>8065</v>
@@ -2310,13 +2298,13 @@
         <v>6669652</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1804-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Estudios-trans_orig.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3FC22F9-4E05-4480-96AC-09E68739AA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79568657-E99B-41B9-94EF-BFCE992AFEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53DFB3A9-24B8-4DC1-9909-9E1739020E78}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FED6CCE3-03CD-4DFD-B707-DECC50C3D033}"/>
   </bookViews>
   <sheets>
-    <sheet name="2016" sheetId="2" r:id="rId1"/>
-    <sheet name="2023" sheetId="3" r:id="rId2"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,435 +39,624 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="206">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2007 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>991.0</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
   <si>
     <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>Si</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>94,71%</t>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
   </si>
 </sst>
 </file>
@@ -877,8 +1068,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A229659-820B-4859-8455-C2DF2688E9C4}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED96DC2B-F35E-459B-AA15-991C8B695AE3}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -995,10 +1186,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>65</v>
+        <v>1038</v>
       </c>
       <c r="D4" s="7">
-        <v>65569</v>
+        <v>1031723</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1010,550 +1201,548 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>100</v>
+        <v>1291</v>
       </c>
       <c r="I4" s="7">
-        <v>116700</v>
+        <v>1315113</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2329</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2346836</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>165</v>
-      </c>
-      <c r="N4" s="7">
-        <v>182269</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>697</v>
-      </c>
-      <c r="D5" s="7">
-        <v>688778</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>792</v>
-      </c>
-      <c r="I5" s="7">
-        <v>877960</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1489</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1566738</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>762</v>
-      </c>
-      <c r="D6" s="7">
-        <v>754347</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>892</v>
-      </c>
-      <c r="I6" s="7">
-        <v>994660</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1654</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1749007</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>1038</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1031723</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1291</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1315113</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2329</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2346836</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>107</v>
-      </c>
-      <c r="D7" s="7">
-        <v>109885</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7">
-        <v>155</v>
-      </c>
-      <c r="I7" s="7">
-        <v>165532</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>262</v>
-      </c>
-      <c r="N7" s="7">
-        <v>275417</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="7">
-        <v>1845</v>
+        <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1966500</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>1753</v>
+        <v>1554</v>
       </c>
       <c r="I8" s="7">
-        <v>1822768</v>
+        <v>1587673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>3598</v>
+        <v>3203</v>
       </c>
       <c r="N8" s="7">
-        <v>3789268</v>
+        <v>3281086</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1952</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2076385</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>1988300</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>3860</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>4064685</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>38235</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>67780</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>106015</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>466</v>
+        <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>508651</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>466</v>
+        <v>1554</v>
       </c>
       <c r="I11" s="7">
-        <v>481360</v>
+        <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>932</v>
+        <v>3203</v>
       </c>
       <c r="N11" s="7">
-        <v>990011</v>
+        <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>546886</v>
+        <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>549140</v>
+        <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1027</v>
+        <v>979</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>213690</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>350012</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>563702</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>3008</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3163928</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
-        <v>3011</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3182088</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
-        <v>6019</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>6346016</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1562,74 +1751,280 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3215</v>
+        <v>527</v>
       </c>
       <c r="D15" s="7">
-        <v>3377618</v>
+        <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>3326</v>
+        <v>452</v>
       </c>
       <c r="I15" s="7">
-        <v>3532100</v>
+        <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>6541</v>
+        <v>979</v>
       </c>
       <c r="N15" s="7">
-        <v>6909718</v>
+        <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>85</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFC1EBE-C2F7-40C2-B4B1-87ED5C119A3A}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31111658-28F5-45B7-9CC9-D56E45A4B514}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1645,7 +2040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1746,565 +2141,563 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>908</v>
       </c>
       <c r="D4" s="7">
-        <v>33083</v>
+        <v>974643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>126</v>
+        <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>69513</v>
+        <v>1337796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>170</v>
+        <v>2155</v>
       </c>
       <c r="N4" s="7">
-        <v>102596</v>
+        <v>2312440</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>647</v>
-      </c>
-      <c r="D5" s="7">
-        <v>508551</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1300</v>
-      </c>
-      <c r="I5" s="7">
-        <v>765815</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="M5" s="7">
-        <v>1947</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1274366</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>691</v>
-      </c>
-      <c r="D6" s="7">
-        <v>541634</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1426</v>
-      </c>
-      <c r="I6" s="7">
-        <v>835328</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2117</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1376962</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>908</v>
+      </c>
+      <c r="D7" s="7">
+        <v>974643</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1247</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1337796</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2155</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2312440</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>104</v>
-      </c>
-      <c r="D7" s="7">
-        <v>105887</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="7">
-        <v>198</v>
-      </c>
-      <c r="I7" s="7">
-        <v>150124</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" s="7">
-        <v>302</v>
-      </c>
-      <c r="N7" s="7">
-        <v>256011</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="7">
-        <v>1888</v>
+        <v>1856</v>
       </c>
       <c r="D8" s="7">
-        <v>2056135</v>
+        <v>1963957</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>2719</v>
+        <v>1635</v>
       </c>
       <c r="I8" s="7">
-        <v>2095650</v>
+        <v>1757803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>4607</v>
+        <v>3491</v>
       </c>
       <c r="N8" s="7">
-        <v>4151785</v>
+        <v>3721760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>2917</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>2245774</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>4909</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>4407796</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>61280</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>82144</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>143425</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>621</v>
+        <v>1856</v>
       </c>
       <c r="D11" s="7">
-        <v>611759</v>
+        <v>1963957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>890</v>
+        <v>1635</v>
       </c>
       <c r="I11" s="7">
-        <v>631742</v>
+        <v>1757803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1511</v>
+        <v>3491</v>
       </c>
       <c r="N11" s="7">
-        <v>1243501</v>
+        <v>3721760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>681</v>
+        <v>438</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1004</v>
+        <v>412</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1685</v>
+        <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>939812</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>200249</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>301782</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>502032</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>3156</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3176445</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
-        <v>4909</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3493207</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>8065</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>6669652</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,66 +2706,2182 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3364</v>
+        <v>438</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>5347</v>
+        <v>412</v>
       </c>
       <c r="I15" s="7">
-        <v>3794989</v>
+        <v>458631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>8711</v>
+        <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>7171684</v>
+        <v>939812</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>85</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3419782</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3294</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3554230</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6974012</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3419782</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3294</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3554230</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6974012</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093C6B39-D08A-4FE6-9F40-2AFC5FAE47B9}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>65</v>
+      </c>
+      <c r="D5" s="7">
+        <v>65569</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="7">
+        <v>100</v>
+      </c>
+      <c r="I5" s="7">
+        <v>116700</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="7">
+        <v>165</v>
+      </c>
+      <c r="N5" s="7">
+        <v>182269</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>697</v>
+      </c>
+      <c r="D6" s="7">
+        <v>688778</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="7">
+        <v>792</v>
+      </c>
+      <c r="I6" s="7">
+        <v>877960</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1489</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1566738</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>762</v>
+      </c>
+      <c r="D7" s="7">
+        <v>754347</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>892</v>
+      </c>
+      <c r="I7" s="7">
+        <v>994660</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1654</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1749007</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>107</v>
+      </c>
+      <c r="D9" s="7">
+        <v>109885</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="7">
+        <v>155</v>
+      </c>
+      <c r="I9" s="7">
+        <v>165532</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="7">
+        <v>262</v>
+      </c>
+      <c r="N9" s="7">
+        <v>275417</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1845</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1966500</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1753</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1822768</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3598</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3789268</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1952</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2076385</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1908</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1988300</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3860</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4064685</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7">
+        <v>38235</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="7">
+        <v>60</v>
+      </c>
+      <c r="I13" s="7">
+        <v>67780</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="7">
+        <v>95</v>
+      </c>
+      <c r="N13" s="7">
+        <v>106015</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>466</v>
+      </c>
+      <c r="D14" s="7">
+        <v>508651</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7">
+        <v>466</v>
+      </c>
+      <c r="I14" s="7">
+        <v>481360</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="7">
+        <v>932</v>
+      </c>
+      <c r="N14" s="7">
+        <v>990011</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>501</v>
+      </c>
+      <c r="D15" s="7">
+        <v>546886</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>526</v>
+      </c>
+      <c r="I15" s="7">
+        <v>549140</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1027</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1096026</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>207</v>
+      </c>
+      <c r="D17" s="7">
+        <v>213690</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="7">
+        <v>315</v>
+      </c>
+      <c r="I17" s="7">
+        <v>350012</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="7">
+        <v>522</v>
+      </c>
+      <c r="N17" s="7">
+        <v>563702</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3008</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3163928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3011</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3182088</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="7">
+        <v>6019</v>
+      </c>
+      <c r="N18" s="7">
+        <v>6346016</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3215</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3377618</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3326</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3532100</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6541</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6909718</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8748BE81-71E2-46BC-A3F2-E6E5EBF3AA63}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7">
+        <v>33083</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="7">
+        <v>126</v>
+      </c>
+      <c r="I5" s="7">
+        <v>69513</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="7">
+        <v>170</v>
+      </c>
+      <c r="N5" s="7">
+        <v>102596</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>647</v>
+      </c>
+      <c r="D6" s="7">
+        <v>508551</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1300</v>
+      </c>
+      <c r="I6" s="7">
+        <v>765815</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1947</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1274366</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>691</v>
+      </c>
+      <c r="D7" s="7">
+        <v>541634</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1426</v>
+      </c>
+      <c r="I7" s="7">
+        <v>835328</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2117</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1376962</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>104</v>
+      </c>
+      <c r="D9" s="7">
+        <v>105887</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="7">
+        <v>198</v>
+      </c>
+      <c r="I9" s="7">
+        <v>150124</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" s="7">
+        <v>302</v>
+      </c>
+      <c r="N9" s="7">
+        <v>256011</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1888</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2056135</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2719</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2095650</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M10" s="7">
+        <v>4607</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4151785</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1992</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2162022</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2917</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2245774</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4909</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4407796</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>60</v>
+      </c>
+      <c r="D13" s="7">
+        <v>61280</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="7">
+        <v>114</v>
+      </c>
+      <c r="I13" s="7">
+        <v>82144</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M13" s="7">
+        <v>174</v>
+      </c>
+      <c r="N13" s="7">
+        <v>143425</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>621</v>
+      </c>
+      <c r="D14" s="7">
+        <v>611759</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="7">
+        <v>890</v>
+      </c>
+      <c r="I14" s="7">
+        <v>631742</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1511</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1243501</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>681</v>
+      </c>
+      <c r="D15" s="7">
+        <v>673039</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="7">
+        <v>713886</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1685</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1386926</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>208</v>
+      </c>
+      <c r="D17" s="7">
+        <v>200250</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="7">
+        <v>438</v>
+      </c>
+      <c r="I17" s="7">
+        <v>301782</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M17" s="7">
+        <v>646</v>
+      </c>
+      <c r="N17" s="7">
+        <v>502032</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3156</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3176445</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="7">
+        <v>4909</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3493207</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M18" s="7">
+        <v>8065</v>
+      </c>
+      <c r="N18" s="7">
+        <v>6669652</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3364</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3376695</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5347</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3794989</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>8711</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7171684</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1804-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79568657-E99B-41B9-94EF-BFCE992AFEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7DDA50E-2832-4EDA-8759-C975F0970261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FED6CCE3-03CD-4DFD-B707-DECC50C3D033}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BBB95CD7-9F88-4595-8834-4D211D9E9C66}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="204">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -440,25 +440,25 @@
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>6,37%</t>
+    <t>6,4%</t>
   </si>
   <si>
     <t>8,71%</t>
@@ -467,19 +467,19 @@
     <t>93,89%</t>
   </si>
   <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>92,55%</t>
@@ -488,7 +488,7 @@
     <t>91,29%</t>
   </si>
   <si>
-    <t>93,63%</t>
+    <t>93,6%</t>
   </si>
   <si>
     <t>0,07%</t>
@@ -497,166 +497,160 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>0,02%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED96DC2B-F35E-459B-AA15-991C8B695AE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED5F60A-3F50-4F26-91CC-449FF1B31E82}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1219,7 +1213,7 @@
         <v>2329</v>
       </c>
       <c r="N4" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1372,7 +1366,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1395,7 +1389,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -1548,7 +1542,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1807,7 +1801,7 @@
         <v>3214</v>
       </c>
       <c r="D16" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1822,7 +1816,7 @@
         <v>3297</v>
       </c>
       <c r="I16" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1837,7 +1831,7 @@
         <v>6511</v>
       </c>
       <c r="N16" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1960,7 +1954,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -1975,7 +1969,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1990,7 +1984,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -2023,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31111658-28F5-45B7-9CC9-D56E45A4B514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438386F1-0209-40EE-A7F5-09DD84BE3202}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2159,7 +2153,7 @@
         <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -2312,7 +2306,7 @@
         <v>1247</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2586,7 +2580,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -2739,7 +2733,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2978,7 +2972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093C6B39-D08A-4FE6-9F40-2AFC5FAE47B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFF729F-F526-420F-8441-891AB2AC2D2D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3643,7 +3637,7 @@
         <v>932</v>
       </c>
       <c r="N14" s="7">
-        <v>990011</v>
+        <v>990012</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>108</v>
@@ -3694,7 +3688,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3933,7 +3927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8748BE81-71E2-46BC-A3F2-E6E5EBF3AA63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF8CD68-4C42-4257-92EF-BE8E24073A3A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4105,7 +4099,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>33083</v>
+        <v>31474</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>132</v>
@@ -4120,7 +4114,7 @@
         <v>126</v>
       </c>
       <c r="I5" s="7">
-        <v>69513</v>
+        <v>63128</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>135</v>
@@ -4135,7 +4129,7 @@
         <v>170</v>
       </c>
       <c r="N5" s="7">
-        <v>102596</v>
+        <v>94601</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>138</v>
@@ -4156,7 +4150,7 @@
         <v>647</v>
       </c>
       <c r="D6" s="7">
-        <v>508551</v>
+        <v>483464</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>141</v>
@@ -4171,7 +4165,7 @@
         <v>1300</v>
       </c>
       <c r="I6" s="7">
-        <v>765815</v>
+        <v>691814</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>144</v>
@@ -4186,7 +4180,7 @@
         <v>1947</v>
       </c>
       <c r="N6" s="7">
-        <v>1274366</v>
+        <v>1175280</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>147</v>
@@ -4207,7 +4201,7 @@
         <v>691</v>
       </c>
       <c r="D7" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -4222,7 +4216,7 @@
         <v>1426</v>
       </c>
       <c r="I7" s="7">
-        <v>835328</v>
+        <v>754942</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -4237,7 +4231,7 @@
         <v>2117</v>
       </c>
       <c r="N7" s="7">
-        <v>1376962</v>
+        <v>1269881</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -4311,7 +4305,7 @@
         <v>104</v>
       </c>
       <c r="D9" s="7">
-        <v>105887</v>
+        <v>100630</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>152</v>
@@ -4326,7 +4320,7 @@
         <v>198</v>
       </c>
       <c r="I9" s="7">
-        <v>150124</v>
+        <v>137188</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>155</v>
@@ -4341,7 +4335,7 @@
         <v>302</v>
       </c>
       <c r="N9" s="7">
-        <v>256011</v>
+        <v>237818</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>158</v>
@@ -4350,7 +4344,7 @@
         <v>159</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,46 +4356,46 @@
         <v>1888</v>
       </c>
       <c r="D10" s="7">
-        <v>2056135</v>
+        <v>2189697</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>2719</v>
       </c>
       <c r="I10" s="7">
-        <v>2095650</v>
+        <v>2097405</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>4607</v>
       </c>
       <c r="N10" s="7">
-        <v>4151785</v>
+        <v>4287102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,7 +4407,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4428,7 +4422,7 @@
         <v>2917</v>
       </c>
       <c r="I11" s="7">
-        <v>2245774</v>
+        <v>2234593</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -4443,7 +4437,7 @@
         <v>4909</v>
       </c>
       <c r="N11" s="7">
-        <v>4407796</v>
+        <v>4524920</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -4505,7 +4499,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,46 +4511,46 @@
         <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>61280</v>
+        <v>58730</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>114</v>
       </c>
       <c r="I13" s="7">
-        <v>82144</v>
+        <v>75828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
       </c>
       <c r="N13" s="7">
-        <v>143425</v>
+        <v>134558</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,46 +4562,46 @@
         <v>621</v>
       </c>
       <c r="D14" s="7">
-        <v>611759</v>
+        <v>587893</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>890</v>
       </c>
       <c r="I14" s="7">
-        <v>631742</v>
+        <v>584635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1511</v>
       </c>
       <c r="N14" s="7">
-        <v>1243501</v>
+        <v>1172528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,7 +4613,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4634,7 +4628,7 @@
         <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4649,7 +4643,7 @@
         <v>1685</v>
       </c>
       <c r="N15" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4711,7 +4705,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,37 +4717,37 @@
         <v>208</v>
       </c>
       <c r="D17" s="7">
-        <v>200250</v>
+        <v>190834</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>438</v>
       </c>
       <c r="I17" s="7">
-        <v>301782</v>
+        <v>276144</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>646</v>
       </c>
       <c r="N17" s="7">
-        <v>502032</v>
+        <v>466978</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>194</v>
@@ -4774,7 +4768,7 @@
         <v>3156</v>
       </c>
       <c r="D18" s="7">
-        <v>3176445</v>
+        <v>3261055</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>197</v>
@@ -4789,31 +4783,31 @@
         <v>4909</v>
       </c>
       <c r="I18" s="7">
-        <v>3493207</v>
+        <v>3373854</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>200</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>8065</v>
       </c>
       <c r="N18" s="7">
-        <v>6669652</v>
+        <v>6634909</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,7 +4819,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4840,7 +4834,7 @@
         <v>5347</v>
       </c>
       <c r="I19" s="7">
-        <v>3794989</v>
+        <v>3649998</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4855,7 +4849,7 @@
         <v>8711</v>
       </c>
       <c r="N19" s="7">
-        <v>7171684</v>
+        <v>7101887</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
